--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kautk\Desktop\Website\Python\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30279A9D-F821-43DB-9B8D-72363D34869D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6FA639-9607-4B16-AA9B-1725C140358F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 6" sheetId="1" r:id="rId1"/>
     <sheet name="Problem 7" sheetId="2" r:id="rId2"/>
+    <sheet name="Problem 8" sheetId="3" r:id="rId3"/>
+    <sheet name="Problem 9" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>customer_id</t>
   </si>
@@ -98,6 +100,60 @@
   </si>
   <si>
     <t>Charlie</t>
+  </si>
+  <si>
+    <t>Product_name</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>emp_id</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>years_exp</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Williams</t>
   </si>
 </sst>
 </file>
@@ -535,7 +591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19104E14-7707-47BA-A32D-9FE38DDADAA0}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="257" workbookViewId="0"/>
+    <sheetView zoomScale="257" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -600,4 +656,147 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914FB0AD-D6F1-4268-8DEB-4E958A29615B}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5314B45-67FE-4575-BC97-6B52B8C4EE5A}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kautk\Desktop\Website\Python\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6FA639-9607-4B16-AA9B-1725C140358F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406F54B7-4DBD-4AE4-95FF-DF66B3A6CE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 6" sheetId="1" r:id="rId1"/>
     <sheet name="Problem 7" sheetId="2" r:id="rId2"/>
     <sheet name="Problem 8" sheetId="3" r:id="rId3"/>
     <sheet name="Problem 9" sheetId="4" r:id="rId4"/>
+    <sheet name="Problem 10" sheetId="5" r:id="rId5"/>
+    <sheet name="Problem 11" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>customer_id</t>
   </si>
@@ -154,6 +156,51 @@
   </si>
   <si>
     <t>Williams</t>
+  </si>
+  <si>
+    <t>employee_id</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>quantity_ordered</t>
+  </si>
+  <si>
+    <t>total_price</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>Camera</t>
   </si>
 </sst>
 </file>
@@ -189,8 +236,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5314B45-67FE-4575-BC97-6B52B8C4EE5A}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="187" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -799,4 +847,152 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E98024-5DE4-4E4A-9C66-9BD2C6F7D689}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="229" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1">
+        <v>72000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E100B8F-A911-42FE-A7FB-E1A54B60D7E7}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScale="212" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kautk\Desktop\Website\Python\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406F54B7-4DBD-4AE4-95FF-DF66B3A6CE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16561B24-8ED1-418B-964D-D2F01B4AE2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 6" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="Problem 9" sheetId="4" r:id="rId4"/>
     <sheet name="Problem 10" sheetId="5" r:id="rId5"/>
     <sheet name="Problem 11" sheetId="6" r:id="rId6"/>
+    <sheet name="df1 Problem 12" sheetId="7" r:id="rId7"/>
+    <sheet name="df2 Problem 12" sheetId="8" r:id="rId8"/>
+    <sheet name="Problem 13" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
   <si>
     <t>customer_id</t>
   </si>
@@ -201,6 +205,42 @@
   </si>
   <si>
     <t>Camera</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>Kiwi</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
   </si>
 </sst>
 </file>
@@ -635,6 +675,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B62DE9-9A7D-46E2-BC0C-E53DBDD20777}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19104E14-7707-47BA-A32D-9FE38DDADAA0}">
   <dimension ref="A1:C5"/>
@@ -853,7 +905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E98024-5DE4-4E4A-9C66-9BD2C6F7D689}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="229" workbookViewId="0">
+    <sheetView zoomScale="229" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -995,4 +1047,236 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F2300A-A059-4F5A-934E-EEB87380F1AC}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6940E9-91F8-439D-A861-022EFAEA3938}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24ED440C-39F3-45EB-998B-1F99012F72D3}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="198" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9">
+        <v>7000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kautk\Desktop\Website\Python\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16561B24-8ED1-418B-964D-D2F01B4AE2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D83E52-050B-4A53-91B8-94CB5BB0F03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 6" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <sheet name="df1 Problem 12" sheetId="7" r:id="rId7"/>
     <sheet name="df2 Problem 12" sheetId="8" r:id="rId8"/>
     <sheet name="Problem 13" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet4" sheetId="10" r:id="rId10"/>
+    <sheet name="Problem 14" sheetId="10" r:id="rId10"/>
+    <sheet name="Problem 15" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
   <si>
     <t>customer_id</t>
   </si>
@@ -241,6 +243,48 @@
   </si>
   <si>
     <t>Q4</t>
+  </si>
+  <si>
+    <t>Pen</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subject </t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>jan_stock</t>
+  </si>
+  <si>
+    <t>feb_stock</t>
+  </si>
+  <si>
+    <t>mar_stock</t>
+  </si>
+  <si>
+    <t>apr_stock</t>
   </si>
 </sst>
 </file>
@@ -677,6 +721,177 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B62DE9-9A7D-46E2-BC0C-E53DBDD20777}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView zoomScale="219" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2">
+        <v>150</v>
+      </c>
+      <c r="C2">
+        <v>120</v>
+      </c>
+      <c r="D2">
+        <v>175</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <v>250</v>
+      </c>
+      <c r="C3">
+        <v>280</v>
+      </c>
+      <c r="D3">
+        <v>300</v>
+      </c>
+      <c r="E3">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0316AF9-CD97-439B-81DC-2DCF68E5D49E}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="211" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD613FCE-80F8-4D36-984F-6118E739A685}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1053,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F2300A-A059-4F5A-934E-EEB87380F1AC}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView zoomScale="202" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1112,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6940E9-91F8-439D-A861-022EFAEA3938}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="172" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1171,7 +1386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24ED440C-39F3-45EB-998B-1F99012F72D3}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="198" workbookViewId="0">
+    <sheetView zoomScale="198" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kautk\Desktop\Website\Python\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D83E52-050B-4A53-91B8-94CB5BB0F03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D91745-5BC6-4621-ADAE-6923B3CE325A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 6" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Problem 13" sheetId="9" r:id="rId9"/>
     <sheet name="Problem 14" sheetId="10" r:id="rId10"/>
     <sheet name="Problem 15" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet2" sheetId="12" r:id="rId12"/>
+    <sheet name="Day 1" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
   <si>
     <t>customer_id</t>
   </si>
@@ -285,6 +285,24 @@
   </si>
   <si>
     <t>apr_stock</t>
+  </si>
+  <si>
+    <t>Product_ID</t>
+  </si>
+  <si>
+    <t>Units_Sold</t>
+  </si>
+  <si>
+    <t>Pencil</t>
+  </si>
+  <si>
+    <t>Marker</t>
+  </si>
+  <si>
+    <t>Eraser</t>
+  </si>
+  <si>
+    <t>Bottle</t>
   </si>
 </sst>
 </file>
@@ -792,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0316AF9-CD97-439B-81DC-2DCF68E5D49E}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="211" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="211" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -892,12 +910,113 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD613FCE-80F8-4D36-984F-6118E739A685}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="D2">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>300</v>
+      </c>
+      <c r="D3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5">
+        <v>150</v>
+      </c>
+      <c r="D5">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7">
+        <v>700</v>
+      </c>
+      <c r="D7">
+        <v>14000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kautk\Desktop\Website\Python\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D91745-5BC6-4621-ADAE-6923B3CE325A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04548514-B1A9-4FED-A8E8-EC2422B0AB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 6" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="Problem 14" sheetId="10" r:id="rId10"/>
     <sheet name="Problem 15" sheetId="11" r:id="rId11"/>
     <sheet name="Day 1" sheetId="12" r:id="rId12"/>
+    <sheet name="Day 2" sheetId="13" r:id="rId13"/>
+    <sheet name="Day 3 emp" sheetId="14" r:id="rId14"/>
+    <sheet name="Day 3 task" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
   <si>
     <t>customer_id</t>
   </si>
@@ -303,6 +306,27 @@
   </si>
   <si>
     <t>Bottle</t>
+  </si>
+  <si>
+    <t>vehicle_id</t>
+  </si>
+  <si>
+    <t>electric</t>
+  </si>
+  <si>
+    <t>airbag</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>emp_name</t>
+  </si>
+  <si>
+    <t>task_id</t>
   </si>
 </sst>
 </file>
@@ -912,108 +936,286 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD613FCE-80F8-4D36-984F-6118E739A685}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="201" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="D2">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>300</v>
+      </c>
+      <c r="D3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5">
+        <v>150</v>
+      </c>
+      <c r="D5">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7">
+        <v>700</v>
+      </c>
+      <c r="D7">
+        <v>14000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05FE927-C358-40B4-9CA7-3585BA8F8748}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2">
-        <v>500</v>
-      </c>
-      <c r="D2">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3">
-        <v>300</v>
-      </c>
-      <c r="D3">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4">
-        <v>200</v>
-      </c>
-      <c r="D4">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5">
-        <v>150</v>
-      </c>
-      <c r="D5">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>106</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7">
-        <v>700</v>
-      </c>
-      <c r="D7">
-        <v>14000</v>
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16CF7BA-E787-4986-A334-CBB2674E6395}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C919A537-0E6B-464E-B67E-E86974912717}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kautk\Desktop\Website\Python\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04548514-B1A9-4FED-A8E8-EC2422B0AB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90867EAF-C5D8-48AE-9913-E69EF83BAE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 6" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,9 @@
     <sheet name="Day 2" sheetId="13" r:id="rId13"/>
     <sheet name="Day 3 emp" sheetId="14" r:id="rId14"/>
     <sheet name="Day 3 task" sheetId="15" r:id="rId15"/>
+    <sheet name="Day 4" sheetId="16" r:id="rId16"/>
+    <sheet name="Day 5" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet3" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="103">
   <si>
     <t>customer_id</t>
   </si>
@@ -327,6 +330,27 @@
   </si>
   <si>
     <t>task_id</t>
+  </si>
+  <si>
+    <t>seller_id</t>
+  </si>
+  <si>
+    <t>order_date</t>
+  </si>
+  <si>
+    <t>review_id</t>
+  </si>
+  <si>
+    <t>review_text</t>
+  </si>
+  <si>
+    <t>Great hotel with excellent service</t>
+  </si>
+  <si>
+    <t>The room was clean and spacious, but the staff was unfriendly.</t>
+  </si>
+  <si>
+    <t>The hotel was lovely, and the staff were incredibly helpful. Our room had a beautiful view of the city.</t>
   </si>
 </sst>
 </file>
@@ -362,9 +386,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1052,7 +1080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05FE927-C358-40B4-9CA7-3585BA8F8748}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" workbookViewId="0">
+    <sheetView zoomScale="180" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1219,6 +1247,198 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8CF9C6-3776-4A3A-B6FB-00AFED67EABE}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView zoomScale="177" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC4BEB2-52AD-42F7-BDC1-C73FEDC6BCDF}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="210" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="54.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA6564E-B084-4204-89BA-FA0BBB78DAF5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kautk\Desktop\Website\Python\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90867EAF-C5D8-48AE-9913-E69EF83BAE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5894BF3-541D-4019-A97B-79447E40B1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 6" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,8 @@
     <sheet name="Day 3 task" sheetId="15" r:id="rId15"/>
     <sheet name="Day 4" sheetId="16" r:id="rId16"/>
     <sheet name="Day 5" sheetId="17" r:id="rId17"/>
-    <sheet name="Sheet3" sheetId="18" r:id="rId18"/>
+    <sheet name="Day 6" sheetId="18" r:id="rId18"/>
+    <sheet name="Day 7" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="113">
   <si>
     <t>customer_id</t>
   </si>
@@ -351,6 +352,36 @@
   </si>
   <si>
     <t>The hotel was lovely, and the staff were incredibly helpful. Our room had a beautiful view of the city.</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>amount_spend</t>
+  </si>
+  <si>
+    <t>Eve</t>
+  </si>
+  <si>
+    <t>Danish</t>
+  </si>
+  <si>
+    <t>dAvid</t>
+  </si>
+  <si>
+    <t>SaChin</t>
+  </si>
+  <si>
+    <t>viRAT</t>
+  </si>
+  <si>
+    <t>Akshay</t>
+  </si>
+  <si>
+    <t>raHul</t>
+  </si>
+  <si>
+    <t>Ankit</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1287,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="177" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1385,7 +1416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC4BEB2-52AD-42F7-BDC1-C73FEDC6BCDF}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" workbookViewId="0">
+    <sheetView zoomScale="210" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1433,12 +1464,152 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA6564E-B084-4204-89BA-FA0BBB78DAF5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6">
+        <v>8000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC108E51-0823-40F9-A636-69CCA2AE7A94}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView zoomScale="227" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kautk\Desktop\Website\Python\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5894BF3-541D-4019-A97B-79447E40B1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43CBA63-BF94-4248-BD69-4CC5D0F44A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 6" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,8 @@
     <sheet name="Day 5" sheetId="17" r:id="rId17"/>
     <sheet name="Day 6" sheetId="18" r:id="rId18"/>
     <sheet name="Day 7" sheetId="19" r:id="rId19"/>
+    <sheet name="Day 8" sheetId="20" r:id="rId20"/>
+    <sheet name="Day 9" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="138">
   <si>
     <t>customer_id</t>
   </si>
@@ -382,6 +384,81 @@
   </si>
   <si>
     <t>Ankit</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>Winston</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Annabelle</t>
+  </si>
+  <si>
+    <t>Sally</t>
+  </si>
+  <si>
+    <t>Marwan</t>
+  </si>
+  <si>
+    <t>Shapiro</t>
+  </si>
+  <si>
+    <t>winston@leetcode.com</t>
+  </si>
+  <si>
+    <t>jonathanisgreat</t>
+  </si>
+  <si>
+    <t>bella-@leetcode.com</t>
+  </si>
+  <si>
+    <t>sally.come@leetcode.com</t>
+  </si>
+  <si>
+    <t>quarz#2020@leetcode.com</t>
+  </si>
+  <si>
+    <t>david69@gmail.com</t>
+  </si>
+  <si>
+    <t>.shapo@leetcode.com</t>
+  </si>
+  <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>patient_name</t>
+  </si>
+  <si>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Alain</t>
+  </si>
+  <si>
+    <t>YFEV COUGH</t>
+  </si>
+  <si>
+    <t>DIAB100 MYOP</t>
+  </si>
+  <si>
+    <t>ACNE DIAB100</t>
+  </si>
+  <si>
+    <t>DIAB201</t>
   </si>
 </sst>
 </file>
@@ -1466,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA6564E-B084-4204-89BA-FA0BBB78DAF5}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="189" workbookViewId="0">
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1553,7 +1630,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="227" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1678,6 +1755,192 @@
       </c>
       <c r="C5">
         <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9271A739-6FB6-4185-9B09-F27E318F631F}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63F22E6-D4F6-4D0D-975B-35DADE8E7304}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kautk\Desktop\Website\Python\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43CBA63-BF94-4248-BD69-4CC5D0F44A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887F6A1E-1F16-4772-961C-645176F384BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="15" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 6" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,8 @@
     <sheet name="Day 7" sheetId="19" r:id="rId19"/>
     <sheet name="Day 8" sheetId="20" r:id="rId20"/>
     <sheet name="Day 9" sheetId="21" r:id="rId21"/>
+    <sheet name="Day 11" sheetId="22" r:id="rId22"/>
+    <sheet name="Day 12" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="139">
   <si>
     <t>customer_id</t>
   </si>
@@ -459,6 +461,9 @@
   </si>
   <si>
     <t>DIAB201</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9271A739-6FB6-4185-9B09-F27E318F631F}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -1948,6 +1953,148 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9C5FAB-297A-4480-BAEC-BCA3567A4620}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DBAE71-EB85-4483-BEDF-5CB638A7BA54}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914FB0AD-D6F1-4268-8DEB-4E958A29615B}">
   <dimension ref="A1:B5"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kautk\Desktop\Website\Python\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887F6A1E-1F16-4772-961C-645176F384BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0491F7CC-B533-4B13-AA7B-18A97D644574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="15" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="21" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 6" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,11 @@
     <sheet name="Day 9" sheetId="21" r:id="rId21"/>
     <sheet name="Day 11" sheetId="22" r:id="rId22"/>
     <sheet name="Day 12" sheetId="23" r:id="rId23"/>
+    <sheet name="Day 13 emp" sheetId="24" r:id="rId24"/>
+    <sheet name="Day 13 dept" sheetId="26" r:id="rId25"/>
+    <sheet name="Day 14" sheetId="25" r:id="rId26"/>
+    <sheet name="Day 15" sheetId="27" r:id="rId27"/>
+    <sheet name="Day 16" sheetId="28" r:id="rId28"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="152">
   <si>
     <t>customer_id</t>
   </si>
@@ -464,16 +469,61 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>departmentId</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>john@example.com</t>
+  </si>
+  <si>
+    <t>bob@example.com</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>store1</t>
+  </si>
+  <si>
+    <t>store2</t>
+  </si>
+  <si>
+    <t>store3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1957,7 +2007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9C5FAB-297A-4480-BAEC-BCA3567A4620}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
@@ -2091,6 +2141,327 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19A047C-98EA-4DA4-9FAC-331376DB171A}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2">
+        <v>70000</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3">
+        <v>90000</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4">
+        <v>80000</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5">
+        <v>60000</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6">
+        <v>90000</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93E5801-34E5-486F-9E0B-5A904D8A75A5}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBB9E29-61C9-4E85-8B54-C8D479711200}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3DE8E4-AED5-475E-8C77-760D028E34AF}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8240424A-FEAE-44B0-9E9A-986FB12A26F3}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>95</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kautk\Desktop\Website\Python\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0491F7CC-B533-4B13-AA7B-18A97D644574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CDAB1A-45B8-46FA-93C4-3AD614F5AB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="21" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="23" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 6" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,8 @@
     <sheet name="Day 14" sheetId="25" r:id="rId26"/>
     <sheet name="Day 15" sheetId="27" r:id="rId27"/>
     <sheet name="Day 16" sheetId="28" r:id="rId28"/>
+    <sheet name="Day 19" sheetId="29" r:id="rId29"/>
+    <sheet name="Day 21" sheetId="30" r:id="rId30"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="157">
   <si>
     <t>customer_id</t>
   </si>
@@ -508,6 +510,21 @@
   </si>
   <si>
     <t>store3</t>
+  </si>
+  <si>
+    <t>account_id</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>in_time</t>
+  </si>
+  <si>
+    <t>out_time</t>
+  </si>
+  <si>
+    <t>event_day</t>
   </si>
 </sst>
 </file>
@@ -2412,7 +2429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8240424A-FEAE-44B0-9E9A-986FB12A26F3}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -2462,6 +2479,64 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EC520A-BF34-439A-BDE6-DF7F39D0655F}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>108939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>87709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>91796</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2517,6 +2592,113 @@
       </c>
       <c r="B5">
         <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BC6E18-DFCA-40D8-BE14-D48513AF5F34}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44163</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44163</v>
+      </c>
+      <c r="C3">
+        <v>55</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44168</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44163</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44174</v>
+      </c>
+      <c r="C6">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kautk\Desktop\Website\Python\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CDAB1A-45B8-46FA-93C4-3AD614F5AB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC00CF4C-7270-4057-B920-7DB15BD74E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="23" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="24" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 6" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,8 @@
     <sheet name="Day 16" sheetId="28" r:id="rId28"/>
     <sheet name="Day 19" sheetId="29" r:id="rId29"/>
     <sheet name="Day 21" sheetId="30" r:id="rId30"/>
+    <sheet name="Day 22" sheetId="31" r:id="rId31"/>
+    <sheet name="Day 23" sheetId="32" r:id="rId32"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="164">
   <si>
     <t>customer_id</t>
   </si>
@@ -525,6 +527,27 @@
   </si>
   <si>
     <t>event_day</t>
+  </si>
+  <si>
+    <t>teacher_id</t>
+  </si>
+  <si>
+    <t>subject_id</t>
+  </si>
+  <si>
+    <t>dept_id</t>
+  </si>
+  <si>
+    <t>player_id</t>
+  </si>
+  <si>
+    <t>device_id</t>
+  </si>
+  <si>
+    <t>event_date</t>
+  </si>
+  <si>
+    <t>games_played</t>
   </si>
 </sst>
 </file>
@@ -2487,7 +2510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EC520A-BF34-439A-BDE6-DF7F39D0655F}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -2706,6 +2729,219 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F7B34A-506B-46EF-AD4E-A88E63263AD2}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>42430</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>42492</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>42911</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>42431</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43284</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98175B4C-6C6D-43DF-B949-40854E716290}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5314B45-67FE-4575-BC97-6B52B8C4EE5A}">
   <dimension ref="A1:D5"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kautk\Desktop\Website\Python\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC00CF4C-7270-4057-B920-7DB15BD74E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9F761B-3970-4F2D-9FBB-FC6FD98A6964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="24" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="26" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 6" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,8 @@
     <sheet name="Day 21" sheetId="30" r:id="rId30"/>
     <sheet name="Day 22" sheetId="31" r:id="rId31"/>
     <sheet name="Day 23" sheetId="32" r:id="rId32"/>
+    <sheet name="Day 24" sheetId="33" r:id="rId33"/>
+    <sheet name="Day 25" sheetId="34" r:id="rId34"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="179">
   <si>
     <t>customer_id</t>
   </si>
@@ -548,6 +550,51 @@
   </si>
   <si>
     <t>games_played</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>order_number</t>
+  </si>
+  <si>
+    <t>customer_number</t>
   </si>
 </sst>
 </file>
@@ -2733,7 +2780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F7B34A-506B-46EF-AD4E-A88E63263AD2}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2942,6 +2989,160 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC01B48-DBC3-448E-8A74-542B61CC5C53}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85A2968-8F0C-4B16-81EB-FB9711F6FB74}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5314B45-67FE-4575-BC97-6B52B8C4EE5A}">
   <dimension ref="A1:D5"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kautk\Desktop\Website\Python\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9F761B-3970-4F2D-9FBB-FC6FD98A6964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0367F7C-B0A7-4A5A-B24D-86022144924C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="26" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="33" activeTab="38" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 6" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,11 @@
     <sheet name="Day 23" sheetId="32" r:id="rId32"/>
     <sheet name="Day 24" sheetId="33" r:id="rId33"/>
     <sheet name="Day 25" sheetId="34" r:id="rId34"/>
+    <sheet name="Day 26" sheetId="35" r:id="rId35"/>
+    <sheet name="Day 27" sheetId="36" r:id="rId36"/>
+    <sheet name="Day 28" sheetId="37" r:id="rId37"/>
+    <sheet name="Day 29 employees" sheetId="38" r:id="rId38"/>
+    <sheet name="Day 29 employee_uni" sheetId="39" r:id="rId39"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -58,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="197">
   <si>
     <t>customer_id</t>
   </si>
@@ -595,6 +600,60 @@
   </si>
   <si>
     <t>customer_number</t>
+  </si>
+  <si>
+    <t>sell_date</t>
+  </si>
+  <si>
+    <t>Headphone</t>
+  </si>
+  <si>
+    <t>pencil</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Basketball</t>
+  </si>
+  <si>
+    <t>Bible</t>
+  </si>
+  <si>
+    <t>T-Shirt</t>
+  </si>
+  <si>
+    <t>toyota</t>
+  </si>
+  <si>
+    <t>honda</t>
+  </si>
+  <si>
+    <t>date_id</t>
+  </si>
+  <si>
+    <t>make_name</t>
+  </si>
+  <si>
+    <t>lead_id</t>
+  </si>
+  <si>
+    <t>partner_id</t>
+  </si>
+  <si>
+    <t>actor_id</t>
+  </si>
+  <si>
+    <t>director_id</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>Meir</t>
+  </si>
+  <si>
+    <t>unique_id</t>
   </si>
 </sst>
 </file>
@@ -3088,8 +3147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85A2968-8F0C-4B16-81EB-FB9711F6FB74}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3135,6 +3194,490 @@
         <v>4</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6397FC1-DC9E-4213-A3F2-3CA2AD69569D}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>43981</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>43981</v>
+      </c>
+      <c r="B5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>43981</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF4278A-E483-49FC-9140-BDEC117C2754}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>44173</v>
+      </c>
+      <c r="B2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>44173</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>44173</v>
+      </c>
+      <c r="B4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>44172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>44172</v>
+      </c>
+      <c r="B6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>44173</v>
+      </c>
+      <c r="B7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>44173</v>
+      </c>
+      <c r="B8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>44172</v>
+      </c>
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>44172</v>
+      </c>
+      <c r="B10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>44172</v>
+      </c>
+      <c r="B11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562AA019-EFC0-4AD7-B3C9-0EE1FD9C6002}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1910B4-4758-4EB9-AF3E-7F965D651A19}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455A3E24-02D4-4EEA-85B1-637E2D5DA2CD}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>90</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
     </row>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kautk\Desktop\Website\Python\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0367F7C-B0A7-4A5A-B24D-86022144924C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2C5ADD-6B76-41AE-8294-81FB0E48E970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="33" activeTab="38" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="41" activeTab="44" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 6" sheetId="1" r:id="rId1"/>
@@ -52,6 +52,12 @@
     <sheet name="Day 28" sheetId="37" r:id="rId37"/>
     <sheet name="Day 29 employees" sheetId="38" r:id="rId38"/>
     <sheet name="Day 29 employee_uni" sheetId="39" r:id="rId39"/>
+    <sheet name="Day 30 students" sheetId="40" r:id="rId40"/>
+    <sheet name="Day 30 subjects" sheetId="41" r:id="rId41"/>
+    <sheet name="Day 30 examinations" sheetId="42" r:id="rId42"/>
+    <sheet name="Day 32 SalesPerson" sheetId="43" r:id="rId43"/>
+    <sheet name="Day 32 Company" sheetId="44" r:id="rId44"/>
+    <sheet name="Day 32 Orders" sheetId="45" r:id="rId45"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -63,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="220">
   <si>
     <t>customer_id</t>
   </si>
@@ -654,6 +660,75 @@
   </si>
   <si>
     <t>unique_id</t>
+  </si>
+  <si>
+    <t>student name</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>subject_name</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>physics</t>
+  </si>
+  <si>
+    <t>commission_rate</t>
+  </si>
+  <si>
+    <t>hire_date</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>12/25/2008</t>
+  </si>
+  <si>
+    <t>Pam</t>
+  </si>
+  <si>
+    <t>sales_id</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>YELLOW</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>com_id</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>ORANGE</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>amount</t>
   </si>
 </sst>
 </file>
@@ -3573,7 +3648,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3639,7 +3714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455A3E24-02D4-4EEA-85B1-637E2D5DA2CD}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -3764,6 +3839,521 @@
       </c>
       <c r="D5">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F6A760-677B-4016-8749-455CADC35C41}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3A599E-6B0A-4357-AA46-15585BC8C576}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD73BF5-3A97-4401-ACFB-2DDFE9D25237}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B975E34-648B-4023-A830-771460775AF1}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>100000</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>38721</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3">
+        <v>12000</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>40183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4">
+        <v>65000</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5">
+        <v>25000</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2">
+        <v>38353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6">
+        <v>5000</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>39143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBD17C0-3856-4F3C-A77B-95133A7D4C7D}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0244BC96-10A8-4908-8D78-A8F7954E7D2C}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>41640</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>41641</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>41642</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>41643</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>25000</v>
       </c>
     </row>
   </sheetData>
